--- a/California/WaterSupply_SiteSpecific/CAwsss_Water Supply Sites Schema Mapping to WaDE.xlsx
+++ b/California/WaterSupply_SiteSpecific/CAwsss_Water Supply Sites Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\California\WaterSupply_SiteSpecific\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E582B6B0-99C1-4793-9D91-57F0C89B7715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AC65A9-C0AD-47BF-B2E5-D1A75284CF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="645" activeTab="1" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="822">
   <si>
     <t>Name</t>
   </si>
@@ -830,18 +830,9 @@
     <t>Description of the type of power generated.</t>
   </si>
   <si>
-    <t>California Stream Gages: https://gispublic.waterboards.ca.gov/portal/home/item.html?id=32dfb85bd2744487affe6e3475190093</t>
-  </si>
-  <si>
-    <t>Active Monthly Reservoirs: https://cdec.water.ca.gov/misc/monthly_res.html</t>
-  </si>
-  <si>
     <t>Example API: "https://cdec.water.ca.gov/dynamicapp/req/CSVDataServlet?Stations=ERS&amp;SensorNums=65&amp;dur_code=M&amp;Start=1950-03-22&amp;End=2022-03-22"</t>
   </si>
   <si>
-    <t>Example API for timeseries info: https://cdec.water.ca.gov/dynamicapp/req/CSVDataServlet?Stations=ERS&amp;SensorNums=65&amp;dur_code=M&amp;Start=1950-03-22&amp;End=2022-03-22</t>
-  </si>
-  <si>
     <t>California</t>
   </si>
   <si>
@@ -875,29 +866,16 @@
     <t>WaDE Unspecified</t>
   </si>
   <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
     <t>CalendarYear</t>
   </si>
   <si>
     <t>Ran into issue that the Well Completoin Reports are not timeseries information</t>
   </si>
   <si>
-    <t>Station Meta Data: https://cdec.water.ca.gov/dynamicapp/staMeta</t>
-  </si>
-  <si>
     <t>Use Station Metdata to look for end date info.</t>
   </si>
   <si>
     <t>XXwsss_Water Supply Sites Schema Mapping to WaDE</t>
-  </si>
-  <si>
-    <t>CAwsss_V1
-CAwsss_V2</t>
   </si>
   <si>
     <t>CAwsss_O1</t>
@@ -2940,9 +2918,6 @@
     <t>*auto create one</t>
   </si>
   <si>
-    <t>CAwsss_W</t>
-  </si>
-  <si>
     <t>CAwsss_S + SiteNativeID</t>
   </si>
   <si>
@@ -2955,10 +2930,6 @@
     <t>DATE TIME</t>
   </si>
   <si>
-    <t>Reservoir
-'Stream Gage</t>
-  </si>
-  <si>
     <t>*see benefical use</t>
   </si>
   <si>
@@ -2980,14 +2951,6 @@
     <t>Water Supply_Site Specific</t>
   </si>
   <si>
-    <t>STATION_ID
-siteid</t>
-  </si>
-  <si>
-    <t>Reservoirs
-Stream Gage</t>
-  </si>
-  <si>
     <t>sitename</t>
   </si>
   <si>
@@ -2997,34 +2960,10 @@
     <t>Gage</t>
   </si>
   <si>
-    <t>Station
-sitename</t>
-  </si>
-  <si>
-    <t>Reservoirs_timeseries
-Stream Gage_timeseries</t>
-  </si>
-  <si>
     <t>huc12</t>
   </si>
   <si>
     <t>huc8</t>
-  </si>
-  <si>
-    <t>Reservoirs
--</t>
-  </si>
-  <si>
-    <t>-
-Stream Gage</t>
-  </si>
-  <si>
-    <t>Latitude
-wade_Latit</t>
-  </si>
-  <si>
-    <t>Longitude
-wade_Longi</t>
   </si>
   <si>
     <t>*Let's cheat for now and make this the same as site type.  I feel strongly that *SENSOR_TYPE* should be the variableCV for the thing we are measuring.
@@ -4069,6 +4008,126 @@
   </si>
   <si>
     <t>1) input data is not out of date. 2) not all reservoirs from reservoir input are also in the stream gage input.</t>
+  </si>
+  <si>
+    <t>- https://gispublic.waterboards.ca.gov/portal/home/item.html?id=32dfb85bd2744487affe6e3475190093</t>
+  </si>
+  <si>
+    <t>- Active Monthly Reservoirs: https://cdec.water.ca.gov/misc/monthly_res.html</t>
+  </si>
+  <si>
+    <t>- Station Meta Data: https://cdec.water.ca.gov/dynamicapp/staMeta</t>
+  </si>
+  <si>
+    <t>- Example API for timeseries info: https://cdec.water.ca.gov/dynamicapp/req/CSVDataServlet?Stations=ERS&amp;SensorNums=65&amp;dur_code=M&amp;Start=1950-03-22&amp;End=2022-03-22</t>
+  </si>
+  <si>
+    <t>- site info here: https://cdec.water.ca.gov/reportapp/javareports?name=SnowDepth</t>
+  </si>
+  <si>
+    <t>- use JSON service to get timeseries info. Will take D and M data.  Use early start date will default to earliest available.</t>
+  </si>
+  <si>
+    <t>- ex: https://cdec.water.ca.gov/dynamicapp/req/JSONDataServlet?Stations=MB3&amp;SensorNums=18&amp;dur_code=D&amp;Start=1900-12-02&amp;End=2025-01-02</t>
+  </si>
+  <si>
+    <t>CAwsss_V + counter</t>
+  </si>
+  <si>
+    <t>Monthly,
+Daily</t>
+  </si>
+  <si>
+    <t>AF,
+Inches</t>
+  </si>
+  <si>
+    <t>River Gage,
+Snow Depth</t>
+  </si>
+  <si>
+    <t>CAwsss_W + counter</t>
+  </si>
+  <si>
+    <t>Reservoirs,
+Stream Gage,
+Snow Sensors</t>
+  </si>
+  <si>
+    <t>Latitude
+wade_Latit,
+LATITUDE</t>
+  </si>
+  <si>
+    <t>Longitude
+wade_Longi,
+LONGITUDE</t>
+  </si>
+  <si>
+    <t>STATION_ID,
+siteid,
+STATION_ID</t>
+  </si>
+  <si>
+    <t>-
+Stream Gage,
+-</t>
+  </si>
+  <si>
+    <t>Reservoirs,
+-
+-</t>
+  </si>
+  <si>
+    <t>Reservoir,
+'Stream Gage,
+Snow Depth</t>
+  </si>
+  <si>
+    <t>Surface Water,</t>
+  </si>
+  <si>
+    <t>Reservoirs:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream Gages: </t>
+  </si>
+  <si>
+    <t>We will use these SesnorNums…</t>
+  </si>
+  <si>
+    <t>RESERVOIR ELEVATION, FEET, 6, (daily)</t>
+  </si>
+  <si>
+    <t>RESERVOIR STORAGE, AF, 15, (daily), (monthly)</t>
+  </si>
+  <si>
+    <t>SNOW DEPTH, INCHES, 18, (daily)</t>
+  </si>
+  <si>
+    <t>RESERVOIR OUTFLOW, CFS, 23, (daily)</t>
+  </si>
+  <si>
+    <t>FLOW, MEAN DAILY, CFS, 41, (daily)</t>
+  </si>
+  <si>
+    <t>FLOW, FULL NATURAL, AF, 65, (monthly)</t>
+  </si>
+  <si>
+    <t>FLOW, MONTHLY VOLUME, AF, 66, (monthly)</t>
+  </si>
+  <si>
+    <t>RESERVOIR INFLOW, CFS, 76, (daily)</t>
+  </si>
+  <si>
+    <t>Reservoirs_timeseries,
+Stream Gage_timeseries,
+Snow Depth_timeseries</t>
+  </si>
+  <si>
+    <t>Station,
+sitename,
+Station</t>
   </si>
 </sst>
 </file>
@@ -4427,7 +4486,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4763,6 +4822,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -5079,10 +5139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5108,7 +5168,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>153</v>
@@ -5119,7 +5179,7 @@
         <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>155</v>
@@ -5138,92 +5198,193 @@
         <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>810</v>
       </c>
       <c r="C5" s="84"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" t="s">
-        <v>263</v>
+      <c r="B6" s="117" t="s">
+        <v>789</v>
       </c>
       <c r="C6" s="84"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" t="s">
-        <v>281</v>
+      <c r="B7" s="117" t="s">
+        <v>791</v>
       </c>
       <c r="C7" s="84"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>265</v>
+      <c r="B8" s="117" t="s">
+        <v>792</v>
       </c>
       <c r="C8" s="84"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>671</v>
+      </c>
       <c r="C9" s="84"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="85"/>
+      <c r="B10" s="117" t="s">
+        <v>793</v>
+      </c>
       <c r="C10" s="84"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="85"/>
+      <c r="B11" s="117" t="s">
+        <v>794</v>
+      </c>
       <c r="C11" s="84"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>267</v>
+      <c r="A12" s="85"/>
+      <c r="B12" s="117" t="s">
+        <v>795</v>
       </c>
       <c r="C12" s="84"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" t="s">
-        <v>282</v>
+      <c r="A13" s="85"/>
+      <c r="B13" s="117" t="s">
+        <v>809</v>
       </c>
       <c r="C13" s="84"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="85"/>
-      <c r="B14" t="s">
+      <c r="B14" s="117" t="s">
+        <v>790</v>
+      </c>
+      <c r="C14" s="84"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="85"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="84"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
         <v>264</v>
       </c>
-      <c r="C14" s="84"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="101" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="53"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="53"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="85" t="s">
+      <c r="C16" s="84"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="83"/>
+      <c r="B17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="84"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="85"/>
+      <c r="B18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="84"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="101" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="101"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="101" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="101" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="101" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="101" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="101" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="101" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="101" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="101" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="101" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="101"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="101"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="101"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="101"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="101"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="101"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="53"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="53"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A41" s="83"/>
+      <c r="B41" s="110" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="83"/>
-      <c r="B21" s="110" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>283</v>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5305,257 +5466,257 @@
   <sheetData>
     <row r="1" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="116" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
       <c r="B1" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4" t="s">
+        <v>710</v>
+      </c>
+      <c r="E4" t="s">
+        <v>711</v>
+      </c>
+      <c r="F4" t="s">
+        <v>712</v>
+      </c>
+      <c r="G4" t="s">
+        <v>713</v>
+      </c>
+      <c r="H4" t="s">
+        <v>714</v>
+      </c>
+      <c r="I4" t="s">
+        <v>715</v>
+      </c>
+      <c r="J4" t="s">
+        <v>716</v>
+      </c>
+      <c r="K4" t="s">
+        <v>717</v>
+      </c>
+      <c r="L4" t="s">
+        <v>718</v>
+      </c>
+      <c r="M4" t="s">
+        <v>719</v>
+      </c>
+      <c r="N4" t="s">
+        <v>720</v>
+      </c>
+      <c r="O4" t="s">
+        <v>721</v>
+      </c>
+      <c r="P4" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>723</v>
+      </c>
+      <c r="R4" t="s">
+        <v>724</v>
+      </c>
+      <c r="S4" t="s">
         <v>725</v>
       </c>
-      <c r="B4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="T4" t="s">
         <v>726</v>
       </c>
-      <c r="D4" t="s">
+      <c r="U4" t="s">
         <v>727</v>
       </c>
-      <c r="E4" t="s">
+      <c r="V4" t="s">
         <v>728</v>
       </c>
-      <c r="F4" t="s">
+      <c r="W4" t="s">
         <v>729</v>
       </c>
-      <c r="G4" t="s">
+      <c r="X4" t="s">
         <v>730</v>
       </c>
-      <c r="H4" t="s">
+      <c r="Y4" t="s">
         <v>731</v>
       </c>
-      <c r="I4" t="s">
+      <c r="Z4" t="s">
         <v>732</v>
       </c>
-      <c r="J4" t="s">
+      <c r="AA4" t="s">
         <v>733</v>
       </c>
-      <c r="K4" t="s">
+      <c r="AB4" t="s">
         <v>734</v>
       </c>
-      <c r="L4" t="s">
+      <c r="AC4" t="s">
         <v>735</v>
       </c>
-      <c r="M4" t="s">
+      <c r="AD4" t="s">
         <v>736</v>
       </c>
-      <c r="N4" t="s">
+      <c r="AE4" t="s">
         <v>737</v>
       </c>
-      <c r="O4" t="s">
+      <c r="AF4" t="s">
         <v>738</v>
       </c>
-      <c r="P4" t="s">
+      <c r="AG4" t="s">
+        <v>441</v>
+      </c>
+      <c r="AH4" t="s">
         <v>739</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="AI4" t="s">
         <v>740</v>
       </c>
-      <c r="R4" t="s">
+      <c r="AJ4" t="s">
         <v>741</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AK4" t="s">
+        <v>440</v>
+      </c>
+      <c r="AL4" t="s">
         <v>742</v>
       </c>
-      <c r="T4" t="s">
+      <c r="AM4" t="s">
         <v>743</v>
       </c>
-      <c r="U4" t="s">
+      <c r="AN4" t="s">
         <v>744</v>
       </c>
-      <c r="V4" t="s">
+      <c r="AO4" t="s">
         <v>745</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AP4" t="s">
         <v>746</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AQ4" t="s">
         <v>747</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AR4" t="s">
         <v>748</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AS4" t="s">
         <v>749</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AT4" t="s">
         <v>750</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AU4" t="s">
         <v>751</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AV4" t="s">
         <v>752</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AW4" t="s">
         <v>753</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AX4" t="s">
         <v>754</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AY4" t="s">
         <v>755</v>
       </c>
-      <c r="AG4" t="s">
-        <v>454</v>
-      </c>
-      <c r="AH4" t="s">
+      <c r="AZ4" t="s">
         <v>756</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="BA4" t="s">
         <v>757</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="BB4" t="s">
         <v>758</v>
       </c>
-      <c r="AK4" t="s">
-        <v>453</v>
-      </c>
-      <c r="AL4" t="s">
+      <c r="BC4" t="s">
         <v>759</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="BD4" t="s">
         <v>760</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="BE4" t="s">
         <v>761</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="BF4" t="s">
         <v>762</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>763</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>764</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>765</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>766</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>767</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>768</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>769</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>770</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>771</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>772</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>773</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>774</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>775</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>776</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>777</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>778</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>779</v>
       </c>
       <c r="BG4" t="s">
         <v>94</v>
       </c>
       <c r="BH4" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="B5" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="C5" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="D5" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="E5" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="F5" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="G5" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="K5" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="O5" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="S5" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="W5">
         <v>4</v>
       </c>
       <c r="X5" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="Y5" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="Z5">
         <v>184.31280000000001</v>
@@ -5564,7 +5725,7 @@
         <v>71.163540710000007</v>
       </c>
       <c r="AB5" s="115" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="AC5">
         <v>261733</v>
@@ -5576,49 +5737,49 @@
         <v>8027862</v>
       </c>
       <c r="AF5" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="AG5">
         <v>18020122</v>
       </c>
       <c r="AH5" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="AI5">
         <v>1802012203</v>
       </c>
       <c r="AJ5" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="AK5">
         <v>180201220305</v>
       </c>
       <c r="AL5" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="AM5" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="AN5">
         <v>0</v>
       </c>
       <c r="AO5" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="AP5" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="AQ5" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="AR5" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="AU5">
         <v>0</v>
       </c>
       <c r="AW5" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="BE5">
         <v>40.179925777699999</v>
@@ -5627,21 +5788,21 @@
         <v>-120.60703293</v>
       </c>
       <c r="BG5" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="BH5" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="B7" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="C7" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="D7" t="s">
         <v>131</v>
@@ -5653,15 +5814,15 @@
         <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="B8" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="C8">
         <v>4960</v>
@@ -5673,13 +5834,13 @@
         <v>-120.607</v>
       </c>
       <c r="F8" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="G8" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="H8" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -5694,7 +5855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8657C7D5-E8C6-4B34-858E-8D6A434024B4}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -5801,7 +5962,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="109" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G3" s="88" t="s">
         <v>7</v>
@@ -5836,7 +5997,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="75" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>7</v>
@@ -6046,7 +6207,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="113" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>7</v>
@@ -6081,7 +6242,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>7</v>
@@ -6116,7 +6277,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="113" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>7</v>
@@ -6157,7 +6318,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6240,7 +6401,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -6257,7 +6418,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="74" t="s">
-        <v>284</v>
+        <v>796</v>
       </c>
       <c r="G3" s="88" t="s">
         <v>7</v>
@@ -6310,7 +6471,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -6326,8 +6487,8 @@
       <c r="E5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="78" t="s">
-        <v>277</v>
+      <c r="F5" s="75" t="s">
+        <v>797</v>
       </c>
       <c r="G5" s="36" t="s">
         <v>7</v>
@@ -6362,7 +6523,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G6" s="36" t="s">
         <v>7</v>
@@ -6380,7 +6541,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
@@ -6397,7 +6558,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="75" t="s">
-        <v>278</v>
+        <v>798</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>7</v>
@@ -6415,7 +6576,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -6432,7 +6593,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>278</v>
+        <v>798</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>7</v>
@@ -6502,7 +6663,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>7</v>
@@ -6520,7 +6681,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>83</v>
       </c>
@@ -6536,7 +6697,9 @@
       <c r="E11" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="75"/>
+      <c r="F11" s="75" t="s">
+        <v>799</v>
+      </c>
       <c r="G11" s="36" t="s">
         <v>7</v>
       </c>
@@ -6553,7 +6716,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>85</v>
       </c>
@@ -6569,7 +6732,9 @@
       <c r="E12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="75" t="s">
+        <v>799</v>
+      </c>
       <c r="G12" s="36" t="s">
         <v>7</v>
       </c>
@@ -6711,7 +6876,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="79" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G3" s="88" t="s">
         <v>7</v>
@@ -6746,7 +6911,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="81" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>7</v>
@@ -6781,7 +6946,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G5" s="36" t="s">
         <v>7</v>
@@ -6816,7 +6981,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G6" s="36" t="s">
         <v>7</v>
@@ -6851,7 +7016,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>7</v>
@@ -6886,7 +7051,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>7</v>
@@ -6921,7 +7086,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="113" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>7</v>
@@ -6956,7 +7121,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>7</v>
@@ -7020,7 +7185,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7126,7 +7291,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="74" t="s">
-        <v>433</v>
+        <v>800</v>
       </c>
       <c r="G3" s="76" t="s">
         <v>7</v>
@@ -7283,7 +7448,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G8" s="73"/>
       <c r="H8" s="72"/>
@@ -7313,8 +7478,8 @@
       <c r="E9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="73" t="s">
-        <v>431</v>
+      <c r="F9" s="70" t="s">
+        <v>808</v>
       </c>
       <c r="G9" s="70"/>
       <c r="H9" s="72"/>
@@ -7361,8 +7526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7F8C98-3861-4B86-BE27-886CB915286E}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7466,7 +7631,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="74" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G3" s="76"/>
       <c r="H3" s="80"/>
@@ -7530,7 +7695,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G5" s="70"/>
       <c r="H5" s="71"/>
@@ -7610,7 +7775,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -7630,7 +7795,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="70" t="s">
-        <v>455</v>
+        <v>806</v>
       </c>
       <c r="H8" s="71" t="s">
         <v>58</v>
@@ -7744,7 +7909,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>129</v>
       </c>
@@ -7764,10 +7929,10 @@
         <v>7</v>
       </c>
       <c r="G12" s="70" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
       <c r="H12" s="114" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="I12" s="98" t="s">
         <v>7</v>
@@ -7777,7 +7942,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
@@ -7797,10 +7962,10 @@
         <v>7</v>
       </c>
       <c r="G13" s="70" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
       <c r="H13" s="114" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="I13" s="98" t="s">
         <v>7</v>
@@ -7810,7 +7975,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>131</v>
       </c>
@@ -7830,10 +7995,10 @@
         <v>7</v>
       </c>
       <c r="G14" s="70" t="s">
-        <v>447</v>
+        <v>801</v>
       </c>
       <c r="H14" s="71" t="s">
-        <v>457</v>
+        <v>802</v>
       </c>
       <c r="I14" s="98" t="s">
         <v>7</v>
@@ -7845,7 +8010,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>132</v>
       </c>
@@ -7865,10 +8030,10 @@
         <v>7</v>
       </c>
       <c r="G15" s="70" t="s">
-        <v>447</v>
+        <v>801</v>
       </c>
       <c r="H15" s="71" t="s">
-        <v>458</v>
+        <v>803</v>
       </c>
       <c r="I15" s="98" t="s">
         <v>7</v>
@@ -7896,9 +8061,15 @@
       <c r="E16" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="71"/>
+      <c r="F16" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="71" t="s">
+        <v>7</v>
+      </c>
       <c r="I16" s="98" t="s">
         <v>7</v>
       </c>
@@ -7923,9 +8094,15 @@
       <c r="E17" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
+      <c r="F17" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="71" t="s">
+        <v>7</v>
+      </c>
       <c r="I17" s="98" t="s">
         <v>7</v>
       </c>
@@ -7951,7 +8128,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="100" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="G18" s="70" t="s">
         <v>7</v>
@@ -7969,7 +8146,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>135</v>
       </c>
@@ -7985,12 +8162,14 @@
       <c r="E19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F19" s="70" t="s">
+        <v>7</v>
+      </c>
       <c r="G19" s="70" t="s">
-        <v>447</v>
+        <v>801</v>
       </c>
       <c r="H19" s="71" t="s">
-        <v>451</v>
+        <v>821</v>
       </c>
       <c r="I19" s="98" t="s">
         <v>7</v>
@@ -8002,7 +8181,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>137</v>
       </c>
@@ -8022,10 +8201,10 @@
         <v>7</v>
       </c>
       <c r="G20" s="70" t="s">
-        <v>447</v>
+        <v>801</v>
       </c>
       <c r="H20" s="71" t="s">
-        <v>446</v>
+        <v>804</v>
       </c>
       <c r="I20" s="98" t="s">
         <v>7</v>
@@ -8053,9 +8232,15 @@
       <c r="E21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="71"/>
+      <c r="F21" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="71" t="s">
+        <v>7</v>
+      </c>
       <c r="I21" s="98" t="s">
         <v>7</v>
       </c>
@@ -8064,7 +8249,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>139</v>
       </c>
@@ -8081,7 +8266,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="70" t="s">
-        <v>438</v>
+        <v>807</v>
       </c>
       <c r="G22" s="70" t="s">
         <v>7</v>
@@ -8115,9 +8300,15 @@
       <c r="E23" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="71"/>
+      <c r="F23" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="71" t="s">
+        <v>7</v>
+      </c>
       <c r="I23" s="98" t="s">
         <v>7</v>
       </c>
@@ -8144,9 +8335,15 @@
       <c r="E24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
+      <c r="F24" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="71" t="s">
+        <v>7</v>
+      </c>
       <c r="I24" s="98" t="s">
         <v>7</v>
       </c>
@@ -8186,7 +8383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E07544-54C6-4298-B1F4-AA27E9BE2694}">
   <dimension ref="A1:L16410"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -8587,7 +8784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>50</v>
       </c>
@@ -8605,10 +8802,10 @@
       </c>
       <c r="F13" s="70"/>
       <c r="G13" s="105" t="s">
-        <v>452</v>
+        <v>820</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="I13" s="104" t="s">
         <v>7</v>
@@ -8703,7 +8900,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="70" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="G16" s="105"/>
       <c r="H16" s="71"/>
@@ -8835,7 +9032,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="70" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G20" s="70" t="s">
         <v>7</v>
@@ -9101,7 +9298,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="70" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G28" s="70" t="s">
         <v>7</v>
@@ -9119,7 +9316,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
         <v>48</v>
       </c>
@@ -9136,13 +9333,13 @@
         <v>10</v>
       </c>
       <c r="F29" s="73" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="G29" s="105" t="s">
-        <v>452</v>
+        <v>820</v>
       </c>
       <c r="H29" s="59" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I29" s="104" t="s">
         <v>7</v>
@@ -9187,7 +9384,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>145</v>
       </c>
@@ -9207,10 +9404,10 @@
         <v>7</v>
       </c>
       <c r="G31" s="105" t="s">
-        <v>452</v>
+        <v>820</v>
       </c>
       <c r="H31" s="59" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I31" s="104" t="s">
         <v>7</v>
@@ -9222,7 +9419,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
         <v>146</v>
       </c>
@@ -9242,10 +9439,10 @@
         <v>7</v>
       </c>
       <c r="G32" s="105" t="s">
-        <v>452</v>
+        <v>820</v>
       </c>
       <c r="H32" s="59" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I32" s="104" t="s">
         <v>7</v>
@@ -58483,451 +58680,451 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B1" s="112" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="111" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="111" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="111" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="111" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="111" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="111" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="111" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="111" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="111" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="111" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="111" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="111" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="111" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="111" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="111" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="111" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="111" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="111" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="111" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="111" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="111" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="111" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="111" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="111" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="111" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="111" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="111" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="111" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="111" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="111" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="111" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="111" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="111" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="111" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="111" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="111" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="111" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="111" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="111" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="111" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="111" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="111" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="111" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="111" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="111" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="111" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="111" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="111" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="111" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B50" s="112">
         <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="111" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="111" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="111" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="111" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="111" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="111" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="111" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="111" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="111" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="111" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="111" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="111" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="111" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="111" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="111" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="111" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="111" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="111" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="111" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B69" s="112">
         <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D69" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="111" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="111" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="111" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="111" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="111" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="111" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="111" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="111" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B77" s="112">
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="111" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="111" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="111" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="111" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B81" s="112">
         <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D81" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="111" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B82" s="112">
         <v>65</v>
@@ -58935,357 +59132,357 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="111" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="111" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="111" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="111" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B86" s="112">
         <v>23</v>
       </c>
       <c r="C86" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="111" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="111" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="111" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="111" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="111" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="111" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="111" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="111" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="111" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="111" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="111" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="111" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="111" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="111" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B100" s="112">
         <v>85</v>
       </c>
       <c r="D100" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="111" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B101" s="112">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="111" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="111" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="111" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="111" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="111" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="111" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="111" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="111" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="111" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="111" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="111" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="111" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="111" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="111" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="111" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="111" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="111" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="111" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="111" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="111" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="111" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B122" s="112">
         <v>71</v>
       </c>
       <c r="C122" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="111" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="111" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B124" s="112">
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="111" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="111" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="111" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="111" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="111" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="111" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="111" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="111" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="111" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="111" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="111" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="111" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="111" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="111" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="111" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="111" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="111" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="111" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="111" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="111" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="111" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="111" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="111" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -59312,15 +59509,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="111" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="C2" t="str">
         <f>""""&amp;A2&amp;""""&amp;" : "&amp;""""&amp;B2&amp;""""&amp;","</f>
@@ -59329,10 +59526,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="111" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" si="0">""""&amp;A3&amp;""""&amp;" : "&amp;""""&amp;B3&amp;""""&amp;","</f>
@@ -59341,10 +59538,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="111" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B4" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -59353,10 +59550,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="111" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -59365,10 +59562,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="111" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -59377,10 +59574,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="111" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="B7" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -59389,10 +59586,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="111" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="B8" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -59401,10 +59598,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="111" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -59413,10 +59610,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="111" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -59425,10 +59622,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="111" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -59437,10 +59634,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="111" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="B12" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -59449,10 +59646,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="111" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="B13" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -59461,10 +59658,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="111" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="B14" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -59473,10 +59670,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="111" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -59485,10 +59682,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="111" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="B16" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -59497,10 +59694,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="111" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="B17" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -59509,10 +59706,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="111" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B18" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -59521,10 +59718,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="111" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B19" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -59533,10 +59730,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="111" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="B20" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -59545,10 +59742,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="111" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B21" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -59557,10 +59754,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="111" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B22" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -59569,10 +59766,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="111" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="B23" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -59581,10 +59778,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="111" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="B24" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -59593,10 +59790,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="111" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="B25" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -59605,10 +59802,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="111" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="B26" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -59617,10 +59814,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="111" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="B27" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -59629,10 +59826,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="111" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="B28" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -59641,10 +59838,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="111" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="B29" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -59653,10 +59850,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="111" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="B30" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -59665,10 +59862,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="111" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="B31" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -59677,10 +59874,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="111" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="B32" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -59689,10 +59886,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="111" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="B33" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -59701,10 +59898,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="111" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="B34" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -59713,10 +59910,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="111" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="B35" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -59725,10 +59922,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="111" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="B36" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -59737,10 +59934,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="111" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="B37" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -59749,10 +59946,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="111" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="B38" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -59761,10 +59958,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="111" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="B39" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -59773,10 +59970,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="111" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="B40" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
@@ -59785,10 +59982,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="111" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="B41" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
@@ -59797,10 +59994,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="111" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="B42" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
@@ -59809,10 +60006,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="111" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="B43" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
@@ -59821,10 +60018,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="111" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="B44" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
@@ -59833,10 +60030,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="111" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="B45" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
@@ -59845,10 +60042,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="111" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="B46" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -59857,10 +60054,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="111" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="B47" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -59869,10 +60066,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="111" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="B48" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
@@ -59881,10 +60078,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="111" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="B49" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
@@ -59893,10 +60090,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="111" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="B50" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
@@ -59905,10 +60102,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="111" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="B51" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
@@ -59917,10 +60114,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="111" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="B52" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
@@ -59929,10 +60126,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="111" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="B53" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
@@ -59941,10 +60138,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="111" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="B54" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
@@ -59953,10 +60150,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="111" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="B55" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
@@ -59965,10 +60162,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="111" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="B56" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
@@ -59977,10 +60174,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="111" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="B57" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
@@ -59989,10 +60186,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="111" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="B58" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
@@ -60001,10 +60198,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="111" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="B59" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
@@ -60013,10 +60210,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="111" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="B60" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
@@ -60025,10 +60222,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="111" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="B61" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
@@ -60037,10 +60234,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="111" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="B62" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
@@ -60049,10 +60246,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="111" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="B63" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
@@ -60061,10 +60258,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="111" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="B64" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
@@ -60073,10 +60270,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="111" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="B65" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
@@ -60085,10 +60282,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="111" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="B66" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="0"/>
@@ -60097,10 +60294,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="111" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="B67" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C130" si="1">""""&amp;A67&amp;""""&amp;" : "&amp;""""&amp;B67&amp;""""&amp;","</f>
@@ -60109,10 +60306,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="111" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="B68" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
@@ -60121,10 +60318,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="111" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B69" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
@@ -60133,10 +60330,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="111" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="B70" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
@@ -60145,10 +60342,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="111" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="B71" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
@@ -60157,10 +60354,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="111" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="B72" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
@@ -60169,10 +60366,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="111" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="B73" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="1"/>
@@ -60181,10 +60378,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="111" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="B74" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
@@ -60193,10 +60390,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="111" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="B75" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
@@ -60205,10 +60402,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="111" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="B76" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
@@ -60217,10 +60414,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="111" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="B77" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="1"/>
@@ -60229,10 +60426,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="111" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="B78" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
@@ -60241,10 +60438,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="111" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="B79" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
@@ -60253,10 +60450,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="111" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="B80" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
@@ -60265,10 +60462,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="111" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="B81" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="1"/>
@@ -60277,10 +60474,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="111" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="B82" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
@@ -60289,10 +60486,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="111" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="B83" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
@@ -60301,10 +60498,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="111" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="B84" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="1"/>
@@ -60313,10 +60510,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="111" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="B85" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
@@ -60325,10 +60522,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="111" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="B86" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="1"/>
@@ -60337,10 +60534,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="111" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="B87" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="1"/>
@@ -60349,7 +60546,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="111" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="B88" t="s">
         <v>257</v>
@@ -60361,10 +60558,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="111" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="B89" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="1"/>
@@ -60373,10 +60570,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="111" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="B90" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="1"/>
@@ -60385,10 +60582,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="111" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="B91" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
@@ -60397,10 +60594,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="111" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="B92" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="1"/>
@@ -60409,10 +60606,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="111" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="B93" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="1"/>
@@ -60421,10 +60618,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="111" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="B94" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
@@ -60433,10 +60630,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="111" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="B95" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
@@ -60445,10 +60642,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="111" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="B96" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
@@ -60457,10 +60654,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="111" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="B97" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
@@ -60469,10 +60666,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="111" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="B98" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
@@ -60481,10 +60678,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="111" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="B99" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="1"/>
@@ -60493,10 +60690,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="111" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="B100" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="1"/>
@@ -60505,10 +60702,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="111" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="B101" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="1"/>
@@ -60517,10 +60714,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="111" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="B102" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="1"/>
@@ -60529,10 +60726,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="111" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="B103" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="1"/>
@@ -60541,10 +60738,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="111" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="B104" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="1"/>
@@ -60553,10 +60750,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="111" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="B105" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="1"/>
@@ -60565,10 +60762,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="111" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="B106" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="1"/>
@@ -60577,10 +60774,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="111" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="B107" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
@@ -60589,10 +60786,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="111" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="B108" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="1"/>
@@ -60601,10 +60798,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="111" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="B109" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="1"/>
@@ -60613,10 +60810,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="111" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="B110" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="1"/>
@@ -60625,10 +60822,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="111" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="B111" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="1"/>
@@ -60637,10 +60834,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="111" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="B112" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="1"/>
@@ -60649,10 +60846,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="111" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="B113" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="1"/>
@@ -60661,10 +60858,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="111" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="B114" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="1"/>
@@ -60673,10 +60870,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="111" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="B115" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="1"/>
@@ -60685,10 +60882,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="111" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="B116" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="1"/>
@@ -60697,10 +60894,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="111" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="B117" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="1"/>
@@ -60709,10 +60906,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="111" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="B118" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="1"/>
@@ -60721,10 +60918,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="111" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="B119" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="1"/>
@@ -60733,10 +60930,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="111" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="B120" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="1"/>
@@ -60745,10 +60942,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="111" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B121" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="1"/>
@@ -60757,10 +60954,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="111" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="B122" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="1"/>
@@ -60769,10 +60966,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="111" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="B123" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="1"/>
@@ -60781,10 +60978,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="111" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="B124" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="1"/>
@@ -60793,10 +60990,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="111" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="B125" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="1"/>
@@ -60805,10 +61002,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="111" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="B126" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="1"/>
@@ -60817,10 +61014,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="111" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B127" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="1"/>
@@ -60829,10 +61026,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="111" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="B128" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="1"/>
@@ -60841,10 +61038,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="111" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="B129" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="1"/>
@@ -60853,10 +61050,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="111" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="B130" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="1"/>
@@ -60865,10 +61062,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="111" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="B131" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" ref="C131:C147" si="2">""""&amp;A131&amp;""""&amp;" : "&amp;""""&amp;B131&amp;""""&amp;","</f>
@@ -60877,10 +61074,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="111" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="B132" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="2"/>
@@ -60889,10 +61086,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="111" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="B133" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="2"/>
@@ -60901,10 +61098,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="111" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="B134" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="2"/>
